--- a/7rMartSuperMarket/src/test/resources/TestData.xlsx
+++ b/7rMartSuperMarket/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\droju\eclipse-workspace\7rMartSuperMarket\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\droju\git\repository6\7rMartSuperMarket\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8C67B5-AE6E-4A1E-9818-BDCC630FFBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB27C6A2-4391-4F0F-B0FE-A686B3B458CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>hellooo</t>
+  </si>
+  <si>
+    <t>Vivel Aloe Vera Satin Soft Soap -100g</t>
   </si>
 </sst>
 </file>
@@ -320,15 +323,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -405,6 +408,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/7rMartSuperMarket/src/test/resources/TestData.xlsx
+++ b/7rMartSuperMarket/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\droju\git\repository6\7rMartSuperMarket\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB27C6A2-4391-4F0F-B0FE-A686B3B458CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F819606-FA92-4DE5-88F7-89166227C770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Vivel Aloe Vera Satin Soft Soap -100g</t>
+  </si>
+  <si>
+    <t>Garnett</t>
   </si>
 </sst>
 </file>
@@ -323,10 +326,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -413,6 +416,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/7rMartSuperMarket/src/test/resources/TestData.xlsx
+++ b/7rMartSuperMarket/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\droju\git\repository6\7rMartSuperMarket\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F819606-FA92-4DE5-88F7-89166227C770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4A9440-EE0E-4F0E-843E-F6DFD2F129BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Garnett</t>
+  </si>
+  <si>
+    <t>mobile mobile</t>
   </si>
 </sst>
 </file>
@@ -326,10 +329,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -421,6 +424,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
